--- a/NTTS筛选统计.xlsx
+++ b/NTTS筛选统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\NewTrend TradeStation 新锐股票量化分析软件\autoSave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59365F22-1840-47BE-BBBE-1ADD8F0E4F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2295D66A-D905-41BD-BB98-9031A467AEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3130" yWindow="230" windowWidth="22210" windowHeight="15310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="0" windowWidth="12800" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NTTS筛选统计(15天内）" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2397" uniqueCount="818">
   <si>
     <t>industry</t>
   </si>
@@ -2478,21 +2478,13 @@
   </si>
   <si>
     <t>拓普集团</t>
-  </si>
-  <si>
-    <t>sz.300364</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文在线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2512,13 +2504,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2556,15 +2541,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2869,10 +2851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G440"/>
+  <dimension ref="A1:G439"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A422" workbookViewId="0">
-      <selection activeCell="E448" sqref="E447:E448"/>
+    <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
+      <selection activeCell="B429" sqref="A429:XFD429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2904,7 +2886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -2925,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -2946,7 +2928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -2967,7 +2949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>15</v>
@@ -2988,7 +2970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>17</v>
@@ -3009,7 +2991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>19</v>
@@ -3030,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3047,7 +3029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>23</v>
@@ -3068,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>25</v>
@@ -11371,11 +11353,11 @@
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="2"/>
-      <c r="B429" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="C429" s="3" t="s">
-        <v>819</v>
+      <c r="B429" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>625</v>
       </c>
       <c r="D429" s="1" t="s">
         <v>22</v>
@@ -11392,35 +11374,31 @@
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="2"/>
-      <c r="B430" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="C430" s="1" t="s">
-        <v>625</v>
+      <c r="B430" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>627</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E430">
-        <v>-10.53</v>
+        <v>-7.41</v>
       </c>
       <c r="F430">
         <v>0</v>
       </c>
       <c r="G430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="2"/>
-      <c r="B431" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="C431" s="2" t="s">
-        <v>627</v>
-      </c>
+      <c r="B431" s="2"/>
+      <c r="C431" s="2"/>
       <c r="D431" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E431">
         <v>-7.41</v>
@@ -11434,13 +11412,17 @@
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="2"/>
-      <c r="B432" s="2"/>
-      <c r="C432" s="2"/>
+      <c r="B432" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>629</v>
+      </c>
       <c r="D432" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E432">
-        <v>-7.41</v>
+        <v>-6.06</v>
       </c>
       <c r="F432">
         <v>0</v>
@@ -11451,14 +11433,10 @@
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="2"/>
-      <c r="B433" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="C433" s="2" t="s">
-        <v>629</v>
-      </c>
+      <c r="B433" s="2"/>
+      <c r="C433" s="2"/>
       <c r="D433" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E433">
         <v>-6.06</v>
@@ -11472,13 +11450,17 @@
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="2"/>
-      <c r="B434" s="2"/>
-      <c r="C434" s="2"/>
+      <c r="B434" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>631</v>
+      </c>
       <c r="D434" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E434">
-        <v>-6.06</v>
+        <v>-4.72</v>
       </c>
       <c r="F434">
         <v>0</v>
@@ -11489,14 +11471,10 @@
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="2"/>
-      <c r="B435" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="C435" s="2" t="s">
-        <v>631</v>
-      </c>
+      <c r="B435" s="2"/>
+      <c r="C435" s="2"/>
       <c r="D435" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E435">
         <v>-4.72</v>
@@ -11510,13 +11488,17 @@
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="2"/>
-      <c r="B436" s="2"/>
-      <c r="C436" s="2"/>
+      <c r="B436" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>633</v>
+      </c>
       <c r="D436" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E436">
-        <v>-4.72</v>
+        <v>-4.37</v>
       </c>
       <c r="F436">
         <v>0</v>
@@ -11527,14 +11509,10 @@
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="2"/>
-      <c r="B437" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="C437" s="2" t="s">
-        <v>633</v>
-      </c>
+      <c r="B437" s="2"/>
+      <c r="C437" s="2"/>
       <c r="D437" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E437">
         <v>-4.37</v>
@@ -11548,13 +11526,17 @@
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="2"/>
-      <c r="B438" s="2"/>
-      <c r="C438" s="2"/>
+      <c r="B438" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C438" s="2" t="s">
+        <v>635</v>
+      </c>
       <c r="D438" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E438">
-        <v>-4.37</v>
+        <v>-2.85</v>
       </c>
       <c r="F438">
         <v>0</v>
@@ -11565,14 +11547,10 @@
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="2"/>
-      <c r="B439" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="C439" s="2" t="s">
-        <v>635</v>
-      </c>
+      <c r="B439" s="2"/>
+      <c r="C439" s="2"/>
       <c r="D439" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E439">
         <v>-2.85</v>
@@ -11584,25 +11562,228 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A440" s="2"/>
-      <c r="B440" s="2"/>
-      <c r="C440" s="2"/>
-      <c r="D440" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E440">
-        <v>-2.85</v>
-      </c>
-      <c r="F440">
-        <v>0</v>
-      </c>
-      <c r="G440">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="244">
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="B281:B283"/>
+    <mergeCell ref="C242:C243"/>
+    <mergeCell ref="C236:C237"/>
+    <mergeCell ref="C276:C277"/>
+    <mergeCell ref="C399:C400"/>
+    <mergeCell ref="C211:C212"/>
+    <mergeCell ref="B229:B232"/>
+    <mergeCell ref="B436:B437"/>
+    <mergeCell ref="C348:C352"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C278:C279"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="C285:C287"/>
+    <mergeCell ref="B378:B379"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B333:B335"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C373:C374"/>
+    <mergeCell ref="B409:B410"/>
+    <mergeCell ref="C436:C437"/>
+    <mergeCell ref="C430:C431"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C434:C435"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C390:C391"/>
+    <mergeCell ref="B326:B327"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B244:B246"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B316:B317"/>
+    <mergeCell ref="A303:A319"/>
+    <mergeCell ref="C326:C327"/>
+    <mergeCell ref="C196:C198"/>
+    <mergeCell ref="C248:C249"/>
+    <mergeCell ref="C263:C264"/>
+    <mergeCell ref="B236:B237"/>
+    <mergeCell ref="B276:B277"/>
+    <mergeCell ref="A102:A107"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="C256:C257"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="C229:C232"/>
+    <mergeCell ref="C265:C266"/>
+    <mergeCell ref="B314:B315"/>
+    <mergeCell ref="B273:B274"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C250:C251"/>
+    <mergeCell ref="A95:A99"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="B263:B264"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="B142:B147"/>
+    <mergeCell ref="C342:C343"/>
+    <mergeCell ref="A121:A159"/>
+    <mergeCell ref="B181:B183"/>
+    <mergeCell ref="C289:C290"/>
+    <mergeCell ref="A384:A398"/>
+    <mergeCell ref="C385:C386"/>
+    <mergeCell ref="B208:B210"/>
+    <mergeCell ref="B380:B381"/>
+    <mergeCell ref="C369:C370"/>
+    <mergeCell ref="C378:C379"/>
+    <mergeCell ref="A108:A116"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="C225:C226"/>
+    <mergeCell ref="C218:C221"/>
+    <mergeCell ref="C234:C235"/>
+    <mergeCell ref="C305:C306"/>
+    <mergeCell ref="C181:C183"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="B301:B302"/>
+    <mergeCell ref="A216:A217"/>
+    <mergeCell ref="B366:B367"/>
+    <mergeCell ref="B253:B254"/>
+    <mergeCell ref="C321:C322"/>
+    <mergeCell ref="B294:B295"/>
+    <mergeCell ref="A366:A377"/>
+    <mergeCell ref="A320:A352"/>
+    <mergeCell ref="A160:A210"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="C298:C300"/>
+    <mergeCell ref="C339:C341"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="B342:B343"/>
+    <mergeCell ref="C142:C147"/>
+    <mergeCell ref="A378:A383"/>
+    <mergeCell ref="C316:C317"/>
+    <mergeCell ref="C203:C204"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="B289:B290"/>
+    <mergeCell ref="B369:B370"/>
+    <mergeCell ref="C331:C332"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="C371:C372"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="C253:C254"/>
+    <mergeCell ref="A353:A365"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="B285:B287"/>
+    <mergeCell ref="C175:C176"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C362:C363"/>
+    <mergeCell ref="C380:C381"/>
+    <mergeCell ref="C420:C421"/>
+    <mergeCell ref="B375:B376"/>
+    <mergeCell ref="C432:C433"/>
+    <mergeCell ref="B353:B354"/>
+    <mergeCell ref="A411:A415"/>
+    <mergeCell ref="B430:B431"/>
+    <mergeCell ref="B188:B190"/>
+    <mergeCell ref="C409:C410"/>
+    <mergeCell ref="C353:C354"/>
+    <mergeCell ref="B406:B407"/>
+    <mergeCell ref="B432:B433"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C438:C439"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B124:B127"/>
+    <mergeCell ref="B393:B394"/>
+    <mergeCell ref="B331:B332"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C308:C309"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="B321:B322"/>
+    <mergeCell ref="B434:B435"/>
+    <mergeCell ref="C333:C335"/>
+    <mergeCell ref="B166:B168"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="B438:B439"/>
+    <mergeCell ref="C426:C428"/>
+    <mergeCell ref="B420:B421"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B362:B363"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B348:B352"/>
+    <mergeCell ref="B278:B279"/>
+    <mergeCell ref="B371:B372"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="C273:C274"/>
+    <mergeCell ref="B250:B251"/>
+    <mergeCell ref="B225:B226"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="B234:B235"/>
+    <mergeCell ref="C208:C210"/>
+    <mergeCell ref="B218:B221"/>
+    <mergeCell ref="C310:C311"/>
+    <mergeCell ref="B305:B306"/>
+    <mergeCell ref="C188:C190"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="B339:B341"/>
+    <mergeCell ref="B385:B386"/>
+    <mergeCell ref="B416:B417"/>
+    <mergeCell ref="A218:A228"/>
+    <mergeCell ref="A2:A94"/>
+    <mergeCell ref="C269:C270"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="A405:A407"/>
+    <mergeCell ref="B411:B412"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B242:B243"/>
+    <mergeCell ref="A234:A240"/>
+    <mergeCell ref="A409:A410"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C294:C295"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C281:C283"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="C200:C202"/>
+    <mergeCell ref="B269:B270"/>
+    <mergeCell ref="C314:C315"/>
+    <mergeCell ref="B256:B257"/>
+    <mergeCell ref="B265:B266"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C166:C168"/>
+    <mergeCell ref="C359:C360"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B310:B311"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="B390:B391"/>
+    <mergeCell ref="A416:A439"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="B359:B360"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="C366:C367"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="C406:C407"/>
+    <mergeCell ref="C375:C376"/>
+    <mergeCell ref="B248:B249"/>
+    <mergeCell ref="A242:A246"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="C244:C246"/>
+    <mergeCell ref="B298:B300"/>
+    <mergeCell ref="B426:B428"/>
+    <mergeCell ref="C148:C150"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="B196:B198"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="B399:B400"/>
     <mergeCell ref="A247:A302"/>
@@ -11627,226 +11808,6 @@
     <mergeCell ref="B388:B389"/>
     <mergeCell ref="A229:A233"/>
     <mergeCell ref="B200:B202"/>
-    <mergeCell ref="C166:C168"/>
-    <mergeCell ref="C359:C360"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B310:B311"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="B390:B391"/>
-    <mergeCell ref="A416:A440"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="B359:B360"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="C366:C367"/>
-    <mergeCell ref="B203:B204"/>
-    <mergeCell ref="C406:C407"/>
-    <mergeCell ref="C375:C376"/>
-    <mergeCell ref="B248:B249"/>
-    <mergeCell ref="A242:A246"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="C244:C246"/>
-    <mergeCell ref="B298:B300"/>
-    <mergeCell ref="B426:B428"/>
-    <mergeCell ref="C148:C150"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="B196:B198"/>
-    <mergeCell ref="B385:B386"/>
-    <mergeCell ref="B416:B417"/>
-    <mergeCell ref="A218:A228"/>
-    <mergeCell ref="A2:A94"/>
-    <mergeCell ref="C269:C270"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="A405:A407"/>
-    <mergeCell ref="B411:B412"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B242:B243"/>
-    <mergeCell ref="B420:B421"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B362:B363"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B348:B352"/>
-    <mergeCell ref="B278:B279"/>
-    <mergeCell ref="B371:B372"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="C193:C194"/>
-    <mergeCell ref="A234:A240"/>
-    <mergeCell ref="C273:C274"/>
-    <mergeCell ref="B250:B251"/>
-    <mergeCell ref="B225:B226"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="B234:B235"/>
-    <mergeCell ref="C208:C210"/>
-    <mergeCell ref="A409:A410"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B218:B221"/>
-    <mergeCell ref="C310:C311"/>
-    <mergeCell ref="B305:B306"/>
-    <mergeCell ref="C188:C190"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="B339:B341"/>
-    <mergeCell ref="C294:C295"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C281:C283"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="C200:C202"/>
-    <mergeCell ref="B269:B270"/>
-    <mergeCell ref="C314:C315"/>
-    <mergeCell ref="B256:B257"/>
-    <mergeCell ref="B265:B266"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C439:C440"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B124:B127"/>
-    <mergeCell ref="B393:B394"/>
-    <mergeCell ref="B331:B332"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C308:C309"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="B321:B322"/>
-    <mergeCell ref="B435:B436"/>
-    <mergeCell ref="C333:C335"/>
-    <mergeCell ref="B166:B168"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="B439:B440"/>
-    <mergeCell ref="C426:C428"/>
-    <mergeCell ref="C362:C363"/>
-    <mergeCell ref="C380:C381"/>
-    <mergeCell ref="C420:C421"/>
-    <mergeCell ref="B375:B376"/>
-    <mergeCell ref="C433:C434"/>
-    <mergeCell ref="B353:B354"/>
-    <mergeCell ref="A411:A415"/>
-    <mergeCell ref="B431:B432"/>
-    <mergeCell ref="B188:B190"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="C298:C300"/>
-    <mergeCell ref="C339:C341"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="B342:B343"/>
-    <mergeCell ref="C142:C147"/>
-    <mergeCell ref="A378:A383"/>
-    <mergeCell ref="C316:C317"/>
-    <mergeCell ref="C203:C204"/>
-    <mergeCell ref="C409:C410"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="B289:B290"/>
-    <mergeCell ref="B369:B370"/>
-    <mergeCell ref="C331:C332"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="C371:C372"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="C253:C254"/>
-    <mergeCell ref="A353:A365"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="B285:B287"/>
-    <mergeCell ref="C175:C176"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C353:C354"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="B301:B302"/>
-    <mergeCell ref="A216:A217"/>
-    <mergeCell ref="B366:B367"/>
-    <mergeCell ref="B253:B254"/>
-    <mergeCell ref="C321:C322"/>
-    <mergeCell ref="B294:B295"/>
-    <mergeCell ref="A366:A377"/>
-    <mergeCell ref="A320:A352"/>
-    <mergeCell ref="A160:A210"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="B142:B147"/>
-    <mergeCell ref="C342:C343"/>
-    <mergeCell ref="A121:A159"/>
-    <mergeCell ref="B181:B183"/>
-    <mergeCell ref="C289:C290"/>
-    <mergeCell ref="A384:A398"/>
-    <mergeCell ref="C385:C386"/>
-    <mergeCell ref="B208:B210"/>
-    <mergeCell ref="B406:B407"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B244:B246"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B316:B317"/>
-    <mergeCell ref="A303:A319"/>
-    <mergeCell ref="C326:C327"/>
-    <mergeCell ref="C196:C198"/>
-    <mergeCell ref="C248:C249"/>
-    <mergeCell ref="C263:C264"/>
-    <mergeCell ref="B380:B381"/>
-    <mergeCell ref="B236:B237"/>
-    <mergeCell ref="B276:B277"/>
-    <mergeCell ref="A102:A107"/>
-    <mergeCell ref="C191:C192"/>
-    <mergeCell ref="C256:C257"/>
-    <mergeCell ref="C369:C370"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="C229:C232"/>
-    <mergeCell ref="C265:C266"/>
-    <mergeCell ref="C378:C379"/>
-    <mergeCell ref="B314:B315"/>
-    <mergeCell ref="B437:B438"/>
-    <mergeCell ref="C348:C352"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C213:C214"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C278:C279"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="C285:C287"/>
-    <mergeCell ref="B378:B379"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B333:B335"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C373:C374"/>
-    <mergeCell ref="B409:B410"/>
-    <mergeCell ref="C437:C438"/>
-    <mergeCell ref="C431:C432"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C435:C436"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C390:C391"/>
-    <mergeCell ref="B326:B327"/>
-    <mergeCell ref="B273:B274"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C250:C251"/>
-    <mergeCell ref="A95:A99"/>
-    <mergeCell ref="B433:B434"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="B263:B264"/>
-    <mergeCell ref="A108:A116"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="C225:C226"/>
-    <mergeCell ref="C218:C221"/>
-    <mergeCell ref="C234:C235"/>
-    <mergeCell ref="C305:C306"/>
-    <mergeCell ref="C181:C183"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="B281:B283"/>
-    <mergeCell ref="C242:C243"/>
-    <mergeCell ref="C236:C237"/>
-    <mergeCell ref="C276:C277"/>
-    <mergeCell ref="C399:C400"/>
-    <mergeCell ref="C211:C212"/>
-    <mergeCell ref="B229:B232"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18999,17 +18960,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A2:A68"/>
-    <mergeCell ref="A268:A272"/>
-    <mergeCell ref="A203:A214"/>
-    <mergeCell ref="A158:A162"/>
-    <mergeCell ref="A111:A143"/>
-    <mergeCell ref="A246:A252"/>
-    <mergeCell ref="A149:A155"/>
-    <mergeCell ref="A257:A267"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A215:A235"/>
-    <mergeCell ref="A144:A146"/>
     <mergeCell ref="A281:A295"/>
     <mergeCell ref="A69:A72"/>
     <mergeCell ref="A166:A202"/>
@@ -19024,6 +18974,17 @@
     <mergeCell ref="A87:A89"/>
     <mergeCell ref="A156:A157"/>
     <mergeCell ref="A253:A256"/>
+    <mergeCell ref="A2:A68"/>
+    <mergeCell ref="A268:A272"/>
+    <mergeCell ref="A203:A214"/>
+    <mergeCell ref="A158:A162"/>
+    <mergeCell ref="A111:A143"/>
+    <mergeCell ref="A246:A252"/>
+    <mergeCell ref="A149:A155"/>
+    <mergeCell ref="A257:A267"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A215:A235"/>
+    <mergeCell ref="A144:A146"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
